--- a/doc/002_ユースケース/001_ユースケース図とは/ユースケース図とは.xlsx
+++ b/doc/002_ユースケース/001_ユースケース図とは/ユースケース図とは.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ユースケース図</t>
     <rPh sb="6" eb="7">
@@ -203,6 +203,34 @@
   </si>
   <si>
     <t>https://www.ogis-ri.co.jp/otc/swec/process/am-res/am/artifacts/useCaseDiagram.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミスユースケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ユースケース内に、ユースケースに対するリスクを挙げる</t>
+    <rPh sb="7" eb="8">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://minamikanto.etrobo.jp/2011/pdf/miss_use_case.pdf</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1102,6 +1130,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>46762</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>94574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="21431250"/>
+          <a:ext cx="6904762" cy="5409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1392,9 +1458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B160" sqref="B160"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1645,18 +1713,35 @@
       </c>
     </row>
     <row r="122" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="123" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="124" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="123" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B123" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B124" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="125" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="126" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="C88" r:id="rId1"/>
     <hyperlink ref="C121" r:id="rId2"/>
+    <hyperlink ref="C158" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>